--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58278.76638863221</v>
+        <v>11474726.83674229</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58278.76638863221</v>
+        <v>11474726.83674229</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4995.743802918866</v>
+        <v>700332.2091618148</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4995.743802918866</v>
+        <v>700332.2091618148</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343145593.678666</v>
+        <v>55488710.21831365</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11845.13557315904</v>
+        <v>1329426.24270898</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22239.42852171697</v>
+        <v>2431381.153</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32634.45688559895</v>
+        <v>3533336.063291022</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43080.57748869318</v>
+        <v>4625875.162704434</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53520.60681690075</v>
+        <v>5729441.870424118</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63945.34135166641</v>
+        <v>6831396.780715138</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74370.07588643208</v>
+        <v>7933351.691006154</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84794.81042119775</v>
+        <v>9035306.601297172</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95311.85574369215</v>
+        <v>10081376.46352585</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105829.5498424224</v>
+        <v>11191768.35998502</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116256.215018822</v>
+        <v>12293918.46761307</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126680.9495535883</v>
+        <v>13395873.37790409</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137105.6840883535</v>
+        <v>14497828.28819512</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147730.6103794717</v>
+        <v>15528673.29112278</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159038.9131839504</v>
+        <v>16484729.70521307</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>338.000000000056</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,13 +27144,13 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
